--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2096880.908521098</v>
+        <v>2089707.619810817</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>173.3217671684648</v>
+        <v>157.3961002323936</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.59610230723533</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>221.6033845144009</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.51572092966548</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>162.6897335324205</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464236</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464236</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385213</v>
+        <v>120.1819171385219</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>207.5105897110085</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.0396308464236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>9.472961557017998</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281872</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129663</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>22.5429267261256</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>64.00137801481917</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>282.5860313669104</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>253.9620394059549</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>67.36639160735554</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>230.2634979541061</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>224.8952567231518</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>158.1191024057966</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>135.7789877804219</v>
+        <v>41.61439417961186</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>43.03801681746315</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>265.2267859274612</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>57.64843562452408</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>129.0019285904847</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>22.71958750778575</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>52.06419993906709</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>155.838593597234</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>80.96915811483603</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>218.5843930538366</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>170.4824349897576</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>215.0546805228902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>283.3580910135614</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.1762753293416</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="C2" t="n">
-        <v>787.1037832399832</v>
+        <v>595.2995674921788</v>
       </c>
       <c r="D2" t="n">
-        <v>787.1037832399832</v>
+        <v>595.2995674921788</v>
       </c>
       <c r="E2" t="n">
-        <v>787.1037832399832</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="F2" t="n">
-        <v>508.1578098032604</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4342,10 +4342,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293416</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293416</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293416</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="V2" t="n">
-        <v>962.1762753293416</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="W2" t="n">
-        <v>962.1762753293416</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="X2" t="n">
-        <v>962.1762753293416</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.1762753293416</v>
+        <v>754.2855273228794</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>556.0971511667425</v>
+        <v>504.7174150440222</v>
       </c>
       <c r="C3" t="n">
-        <v>381.6441218856155</v>
+        <v>330.2643857628952</v>
       </c>
       <c r="D3" t="n">
-        <v>381.6441218856155</v>
+        <v>181.329976101644</v>
       </c>
       <c r="E3" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>685.3494183114808</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N3" t="n">
-        <v>907.7419348121333</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>836.17674519153</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>836.17674519153</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>836.17674519153</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>836.17674519153</v>
+        <v>880.784252269623</v>
       </c>
       <c r="W3" t="n">
-        <v>836.17674519153</v>
+        <v>880.784252269623</v>
       </c>
       <c r="X3" t="n">
-        <v>836.17674519153</v>
+        <v>672.9327520640902</v>
       </c>
       <c r="Y3" t="n">
-        <v>628.4164464265762</v>
+        <v>672.9327520640902</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>48.87607759080004</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.3583842988728</v>
+        <v>778.9168197718676</v>
       </c>
       <c r="C5" t="n">
-        <v>781.3583842988728</v>
+        <v>409.9543028314559</v>
       </c>
       <c r="D5" t="n">
-        <v>781.3583842988728</v>
+        <v>51.6886042247054</v>
       </c>
       <c r="E5" t="n">
-        <v>781.3583842988728</v>
+        <v>51.6886042247054</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5607773832933</v>
+        <v>44.74310347550193</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380474</v>
+        <v>57.64391735380372</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456892</v>
+        <v>220.174733845687</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039998</v>
+        <v>474.0852112039961</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494191</v>
+        <v>773.2160860494139</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635726</v>
+        <v>1062.555213635719</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293133</v>
+        <v>1290.582309293125</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935886</v>
+        <v>1447.523776935876</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488198</v>
+        <v>1366.762647488187</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488198</v>
+        <v>1166.509506436742</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488198</v>
+        <v>943.2498839460297</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.762647488198</v>
+        <v>943.2498839460297</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.762647488198</v>
+        <v>943.2498839460297</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.762647488198</v>
+        <v>943.2498839460297</v>
       </c>
       <c r="X5" t="n">
-        <v>1157.155991214452</v>
+        <v>943.2498839460297</v>
       </c>
       <c r="Y5" t="n">
-        <v>781.3583842988728</v>
+        <v>943.2498839460297</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>581.1907465375696</v>
+        <v>213.7848477862326</v>
       </c>
       <c r="C6" t="n">
-        <v>406.7377172564425</v>
+        <v>39.33181850510559</v>
       </c>
       <c r="D6" t="n">
-        <v>257.8033075951913</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="E6" t="n">
-        <v>257.8033075951913</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="F6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782888</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="K6" t="n">
-        <v>52.67537262782888</v>
+        <v>195.5446164760261</v>
       </c>
       <c r="L6" t="n">
-        <v>336.9933817739657</v>
+        <v>479.8626256221618</v>
       </c>
       <c r="M6" t="n">
-        <v>479.7277836524406</v>
+        <v>848.1818601601185</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181904</v>
+        <v>949.3968358693955</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.36189956272</v>
+        <v>1257.711717241714</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.80870570669</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707617</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107486</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107486</v>
+        <v>1287.001448736732</v>
       </c>
       <c r="U6" t="n">
-        <v>1234.174372107486</v>
+        <v>1287.001448736732</v>
       </c>
       <c r="V6" t="n">
-        <v>1234.174372107486</v>
+        <v>1051.849340504989</v>
       </c>
       <c r="W6" t="n">
-        <v>979.937015379284</v>
+        <v>797.6119837767874</v>
       </c>
       <c r="X6" t="n">
-        <v>957.1663823225915</v>
+        <v>589.7604835712546</v>
       </c>
       <c r="Y6" t="n">
-        <v>749.4060835576377</v>
+        <v>382.0001848063006</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.41102704833932</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="C7" t="n">
-        <v>94.41102704833932</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="D7" t="n">
-        <v>94.41102704833932</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="E7" t="n">
-        <v>94.41102704833932</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="F7" t="n">
-        <v>94.41102704833932</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="G7" t="n">
-        <v>94.41102704833932</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771389</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888195</v>
+        <v>32.09990175888124</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611338</v>
+        <v>90.61654790611206</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236698</v>
+        <v>162.7032697236679</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400035</v>
+        <v>238.5105468400008</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057963</v>
+        <v>292.514541505793</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918694</v>
+        <v>315.2036061918657</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918694</v>
+        <v>315.2036061918657</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918694</v>
+        <v>315.2036061918657</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918694</v>
+        <v>315.2036061918657</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918694</v>
+        <v>315.2036061918657</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918694</v>
+        <v>315.2036061918657</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918694</v>
+        <v>315.2036061918657</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918694</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918694</v>
+        <v>29.76317046771367</v>
       </c>
       <c r="Y7" t="n">
-        <v>94.41102704833932</v>
+        <v>29.76317046771367</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1620.08070321196</v>
+        <v>532.9757468194221</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.08070321196</v>
+        <v>532.9757468194221</v>
       </c>
       <c r="D8" t="n">
-        <v>1620.08070321196</v>
+        <v>532.9757468194221</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>532.9757468194221</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>121.9898420298145</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4840,16 +4840,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.08070321196</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.08070321196</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="9">
@@ -4889,10 +4889,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931989</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775526</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170014</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1271.749344574921</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845916</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831245</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.4856756861151</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="C16" t="n">
-        <v>699.5494927582082</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="D16" t="n">
-        <v>549.4328533458724</v>
+        <v>454.3171022339432</v>
       </c>
       <c r="E16" t="n">
         <v>412.2823606383756</v>
@@ -5427,31 +5427,31 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.926719659885</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.134140516355</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701559</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766198</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656581</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1908.095276920732</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>2187.635342139429</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2392.657822921638</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>566.6879222525852</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C19" t="n">
-        <v>397.7517393246783</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1455.443526297839</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1166.314887511397</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>911.6303993055099</v>
       </c>
       <c r="W19" t="n">
-        <v>976.3259379808422</v>
+        <v>622.2132292685493</v>
       </c>
       <c r="X19" t="n">
-        <v>748.3363870828249</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y19" t="n">
-        <v>748.3363870828249</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5749,49 +5749,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5892,22 +5892,22 @@
         <v>155.4478345153607</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011336</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N24" t="n">
-        <v>1296.555866665166</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6214,64 +6214,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011336</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265284</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483981</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>862.6633074373279</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>693.7271245094211</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>543.6104850970853</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>395.6973915146922</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>395.6973915146922</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>227.5220698345128</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>1044.311772267568</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>1044.311772267568</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y28" t="n">
-        <v>1044.311772267568</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="29">
@@ -6460,37 +6460,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011336</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.104817265284</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2050.644882483981</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.8250614170374</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>726.8250614170374</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>726.8250614170374</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688107</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799399</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471228</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.60808497467</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.8250614170374</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2649.889045452863</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L33" t="n">
-        <v>2896.654173359327</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M33" t="n">
-        <v>3203.974306639288</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>3533.836934303321</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>4045.444533962831</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>626.428715221413</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>626.428715221413</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>476.3120758090772</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>476.3120758090772</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>329.4221283111668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>329.4221283111668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>179.0041198591101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1078.203944257458</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V34" t="n">
-        <v>1075.21084526296</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W34" t="n">
-        <v>1075.21084526296</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X34" t="n">
-        <v>847.2212943649431</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>626.428715221413</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1326.711790770268</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1326.711790770268</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1326.711790770268</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>1326.711790770268</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>1326.711790770268</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>1098.722239872251</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>877.929660728721</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7259,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7414,16 +7414,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7605,16 +7605,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>1281.689320534781</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>1060.896741391251</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7651,10 +7651,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.357857465301</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1212.69597660481</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>958.0114883989231</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>668.5943183619626</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>281.3133266100198</v>
       </c>
       <c r="N3" t="n">
-        <v>336.3888653812139</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948386</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357529</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>222.2398859507616</v>
+        <v>450.1033532835728</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470467</v>
+        <v>167.8129993019143</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247345</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978339</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863242</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.2351313103808</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>73.53204524670059</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>73.53204524670059</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>234.4116509503162</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127807</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>19.14409596997052</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>61.34209567542553</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>67.5905529832406</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>10.65497486614731</v>
+        <v>104.8195684669573</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,16 +23943,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>178.5095442409261</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>21.29621240912979</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>90.96703739368829</v>
+        <v>90.96703739368832</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>19.91189977705145</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>202.9900678812514</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>94.36976270750208</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>130.684404739357</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>29.45008734943596</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.963168004552614</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>27.4383749938456</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25845,13 +25845,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>10.654974866147</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.87926138501598</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583919</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="L2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="N2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="O2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703854</v>
+        <v>106137.1517703824</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252094</v>
+        <v>316711.9424252124</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113919</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313457</v>
+        <v>24677.24609313382</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817103</v>
+        <v>76496.15793817167</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291749.0011542653</v>
+        <v>291749.0011542652</v>
       </c>
       <c r="C4" t="n">
-        <v>261372.5469563264</v>
+        <v>261372.5469563273</v>
       </c>
       <c r="D4" t="n">
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26472,40 +26472,40 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485726</v>
+        <v>58810.42201485705</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84979.47254053247</v>
+        <v>84979.47254053276</v>
       </c>
       <c r="C6" t="n">
-        <v>127883.0739168224</v>
+        <v>127883.0739168252</v>
       </c>
       <c r="D6" t="n">
-        <v>-11000.69361675211</v>
+        <v>-11000.6936167551</v>
       </c>
       <c r="E6" t="n">
-        <v>-111432.7393665761</v>
+        <v>-112407.3306262981</v>
       </c>
       <c r="F6" t="n">
-        <v>413727.2971103198</v>
+        <v>412752.7058505983</v>
       </c>
       <c r="G6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505983</v>
       </c>
       <c r="H6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505981</v>
       </c>
       <c r="I6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="J6" t="n">
-        <v>341472.6022391806</v>
+        <v>340498.0109794589</v>
       </c>
       <c r="K6" t="n">
-        <v>389050.051017185</v>
+        <v>388075.4597574644</v>
       </c>
       <c r="L6" t="n">
-        <v>337231.1391721486</v>
+        <v>336256.5479124263</v>
       </c>
       <c r="M6" t="n">
-        <v>278926.2818764824</v>
+        <v>277951.6906167608</v>
       </c>
       <c r="N6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505981</v>
       </c>
       <c r="O6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505982</v>
       </c>
       <c r="P6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505979</v>
       </c>
     </row>
   </sheetData>
@@ -26737,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593903</v>
+        <v>117.5602045593879</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464236</v>
+        <v>372.0396308464209</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026498</v>
+        <v>82.53894384026259</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576964</v>
+        <v>260.1834596576988</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406818</v>
+        <v>95.88311714406544</v>
       </c>
       <c r="D4" t="n">
-        <v>302.247641908132</v>
+        <v>302.2476419081347</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023558</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406829</v>
+        <v>95.88311714406541</v>
       </c>
       <c r="L4" t="n">
-        <v>302.247641908132</v>
+        <v>302.2476419081345</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406818</v>
+        <v>95.88311714406544</v>
       </c>
       <c r="L4" t="n">
-        <v>302.247641908132</v>
+        <v>302.2476419081347</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>191.9511246025427</v>
+        <v>207.876791538614</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>139.0054348249641</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.93708134263201</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27517,16 +27517,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>11.19720263502438</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>119.9182417169037</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>220.0441081310601</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528782</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128674</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>192.2558301280911</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409303</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3078446008425</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>162.2205109674605</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.19830780962997</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27700,13 +27700,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.9721040076207</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
@@ -27715,7 +27715,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281889</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129695</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>183.2300584773519</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>96.34097678673378</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358461</v>
+        <v>78.37121764358491</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322645</v>
+        <v>68.41045236322681</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255179</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>3.936966969680554</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>127.9683306663069</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>346.4177784134395</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380965</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>56.01837628787163</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.632298752070436e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29696,7 +29696,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246841</v>
+        <v>0.4726038374246747</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025548</v>
+        <v>4.840054050025452</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231515</v>
+        <v>18.22005944231479</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662332</v>
+        <v>40.11165994662252</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038481021</v>
+        <v>60.11698038480902</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439591</v>
+        <v>74.58043007439441</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819713</v>
+        <v>82.98509856819548</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422128002</v>
+        <v>84.32788422127834</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288831</v>
+        <v>79.62842981288672</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646642</v>
+        <v>67.96102257646506</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.0358976486949</v>
+        <v>51.03589764869388</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262834</v>
+        <v>29.68720080262775</v>
       </c>
       <c r="S5" t="n">
-        <v>10.769459945315</v>
+        <v>10.76945994531479</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326556</v>
+        <v>2.068823298326515</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397472</v>
+        <v>0.03780830699397397</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.252865345656047</v>
+        <v>0.252865345656042</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941296</v>
+        <v>2.442146890941248</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596356</v>
+        <v>8.706109488596182</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182855</v>
+        <v>23.89022987182807</v>
       </c>
       <c r="K6" t="n">
-        <v>40.8322080307837</v>
+        <v>40.83220803078289</v>
       </c>
       <c r="L6" t="n">
-        <v>54.903942704836</v>
+        <v>54.9039427048349</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486769</v>
+        <v>64.07031148486641</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198271023</v>
+        <v>65.76606198270892</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106834</v>
+        <v>60.16309827106714</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496919</v>
+        <v>48.28619043496823</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128768</v>
+        <v>32.27803956128704</v>
       </c>
       <c r="R6" t="n">
-        <v>15.6998326013465</v>
+        <v>15.69983260134619</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707712</v>
+        <v>4.696862889707618</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359242</v>
+        <v>1.019224792359221</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368731</v>
+        <v>0.01663587800368698</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005398</v>
+        <v>0.2119938115005356</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886619</v>
+        <v>1.884817705886581</v>
       </c>
       <c r="I7" t="n">
-        <v>6.37523207676169</v>
+        <v>6.375232076761563</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308816</v>
+        <v>14.98796247308787</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342635</v>
+        <v>24.62982646342586</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072571</v>
+        <v>31.51769812072509</v>
       </c>
       <c r="M7" t="n">
-        <v>33.2309935609437</v>
+        <v>33.23099356094304</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898718</v>
+        <v>32.44083480898653</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736722</v>
+        <v>29.96436164736662</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275619</v>
+        <v>25.63968789275567</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846793</v>
+        <v>17.75159088846758</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651542</v>
+        <v>9.532012651651351</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513952</v>
+        <v>3.694473969513878</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477608</v>
+        <v>0.9057917400477427</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912037</v>
+        <v>0.01156329880912014</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>158.2658797799248</v>
       </c>
       <c r="N3" t="n">
-        <v>224.6389055562147</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.1623705920108</v>
+        <v>28.16237059201001</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109944</v>
+        <v>164.1725419109932</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548591</v>
+        <v>256.4752296548576</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337569</v>
+        <v>302.1523988337552</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366732</v>
+        <v>292.2617450366716</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539469</v>
+        <v>230.3303996539453</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926795</v>
+        <v>158.5267349926781</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843415009</v>
+        <v>41.04519843414907</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690025</v>
       </c>
       <c r="L6" t="n">
-        <v>287.189908228421</v>
+        <v>287.1899082284199</v>
       </c>
       <c r="M6" t="n">
-        <v>144.176163513611</v>
+        <v>372.0396308464209</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464236</v>
+        <v>102.2373492012899</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033534</v>
+        <v>311.4291731033522</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605761</v>
+        <v>232.7745516605752</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111153</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543495</v>
+        <v>2.360334637543005</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104185</v>
+        <v>59.10772338104123</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278429</v>
+        <v>72.81487052278362</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821577</v>
+        <v>76.57300718821512</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140689</v>
+        <v>54.5494895614063</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764967</v>
+        <v>22.91824715764916</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958075</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594833</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178488</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315245</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.2481640954548</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36460,7 +36460,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>280.6254601782252</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>280.6254601782252</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299141</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>516.7753531914243</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37171,7 +37171,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>329.5684730204368</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
@@ -38116,7 +38116,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
